--- a/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-activitydefinition-chemotherapyregimen-injection.xlsx
+++ b/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-activitydefinition-chemotherapyregimen-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -262,7 +262,10 @@
 </t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>化学療法レジメンの注射薬剤投与に関する定義情報</t>
+  </si>
+  <si>
+    <t>化学療法の1つのRP内における、抗がん剤（注射薬）、分子標的薬、免疫チェックポイント阻害薬、輸液、支持療法（制吐剤など）の組み合わせと、基準投与量、用法（手技、ルート、ライン等）、投与速度などを定義した情報</t>
   </si>
   <si>
     <t>cnl-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.exists() implies name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}
@@ -396,18 +399,14 @@
     <t>ActivityDefinition.contained</t>
   </si>
   <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Medication {http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication_ChemotherapyRegimen}
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+    <t>化学療法レジメンの薬剤に関する定義情報</t>
+  </si>
+  <si>
+    <t>化学療法における、混注する薬剤と、1薬剤ごとの基準投与量（成分量）を定義した情報</t>
   </si>
   <si>
     <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
@@ -416,11 +415,14 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}</t>
+  </si>
+  <si>
+    <t>ManufacturedProduct[classCode=ADMM]</t>
+  </si>
+  <si>
+    <t>clinical.medication</t>
   </si>
   <si>
     <t>ActivityDefinition.extension</t>
@@ -448,6 +450,9 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>ActivityDefinition.modifierExtension</t>
@@ -511,6 +516,13 @@
     <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Definition.identifier</t>
   </si>
   <si>
@@ -520,13 +532,218 @@
     <t>no-gen-base</t>
   </si>
   <si>
-    <t>ActivityDefinition.version</t>
+    <t>ActivityDefinition.identifier:rpNumber</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier:rpNumber.id</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier:rpNumber.extension</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier:rpNumber.use</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier:rpNumber.type</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier:rpNumber.system</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier:rpNumber.value</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier.value</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4B/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier:rpNumber.period</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier:rpNumber.assigner</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>ActivityDefinition.version</t>
+  </si>
+  <si>
     <t>Business version of the activity definition</t>
   </si>
   <si>
@@ -603,9 +820,6 @@
     <t>Allows filtering of activity definitions that are appropriate for use versus not.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
@@ -662,9 +876,6 @@
     <t>Patient</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>The possible types of subjects for an activity (E.g. Patient, Practitioner, Organization, Location, etc.).</t>
   </si>
   <si>
@@ -799,10 +1010,6 @@
     <t>ActivityDefinition.jurisdiction</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Intended jurisdiction for activity definition (if applicable)</t>
   </si>
   <si>
@@ -916,10 +1123,6 @@
     <t>ActivityDefinition.effectivePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>When the activity definition is expected to be used</t>
   </si>
   <si>
@@ -1051,6 +1254,9 @@
     <t>May determine what types of extensions are permitted.</t>
   </si>
   <si>
+    <t>MedicationRequest</t>
+  </si>
+  <si>
     <t>The kind of activity the definition is describing.</t>
   </si>
   <si>
@@ -1222,25 +1428,7 @@
     <t>ActivityDefinition.participant.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ActivityDefinition.participant.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ActivityDefinition.participant.modifierExtension</t>
@@ -1299,11 +1487,11 @@
     <t>ActivityDefinition.product[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication_ChemotherapyRegimen)
 </t>
   </si>
   <si>
-    <t>医薬品</t>
+    <t>医薬品の情報</t>
   </si>
   <si>
     <t>Identifies the food, drug or other product being consumed or supplied in the activity.</t>
@@ -1785,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1797,14 +1985,14 @@
     <col min="1" max="1" width="47.60546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="47.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.8671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1813,7 +2001,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -1822,7 +2010,7 @@
     <col min="26" max="26" width="54.6171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.89453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1991,7 +2179,7 @@
         <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2054,16 +2242,16 @@
         <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -2071,10 +2259,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2085,7 +2273,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2094,19 +2282,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2156,13 +2344,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2185,10 +2373,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2199,7 +2387,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2208,16 +2396,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2268,19 +2456,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2297,10 +2485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2311,28 +2499,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2382,19 +2570,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2411,10 +2599,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2425,7 +2613,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2437,16 +2625,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2472,13 +2660,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2496,19 +2684,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2525,21 +2713,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2551,16 +2739,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2610,25 +2798,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2639,18 +2827,18 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>80</v>
@@ -2745,7 +2933,7 @@
         <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>78</v>
@@ -2753,14 +2941,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2779,16 +2967,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2838,7 +3026,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2850,13 +3038,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2867,14 +3055,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2887,25 +3075,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -2954,7 +3142,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2966,13 +3154,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2983,10 +3171,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2997,7 +3185,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -3006,22 +3194,22 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3070,28 +3258,28 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3099,10 +3287,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3110,7 +3298,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>80</v>
@@ -3122,22 +3310,22 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -3174,19 +3362,17 @@
         <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3198,38 +3384,40 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3238,21 +3426,23 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3300,39 +3490,39 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3343,7 +3533,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3352,23 +3542,19 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3416,25 +3602,25 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3445,21 +3631,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3468,19 +3654,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3518,37 +3704,37 @@
         <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3559,10 +3745,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3573,28 +3759,32 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3618,13 +3808,11 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3642,25 +3830,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3671,10 +3859,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3682,33 +3870,35 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3732,52 +3922,50 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -3785,10 +3973,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3796,10 +3984,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3808,35 +3996,35 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>78</v>
@@ -3872,28 +4060,28 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -3901,10 +4089,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3912,10 +4100,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3924,27 +4112,25 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q19" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3952,7 +4138,7 @@
         <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>78</v>
@@ -3964,13 +4150,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3988,25 +4174,25 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4017,21 +4203,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4040,20 +4226,18 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4102,28 +4286,28 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4131,10 +4315,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4145,7 +4329,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4154,23 +4338,21 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4218,28 +4400,28 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4247,10 +4429,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4261,7 +4443,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4270,19 +4452,19 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4332,28 +4514,28 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4361,10 +4543,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4375,7 +4557,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4384,21 +4566,23 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4446,25 +4630,25 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4475,10 +4659,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4489,7 +4673,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4498,23 +4682,21 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4562,25 +4744,25 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4591,10 +4773,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4605,7 +4787,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4614,20 +4796,18 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>255</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4652,13 +4832,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4676,25 +4856,25 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4705,10 +4885,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4716,31 +4896,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4766,13 +4946,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4790,39 +4970,39 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="AN26" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4833,7 +5013,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4842,10 +5022,10 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>267</v>
@@ -4853,8 +5033,12 @@
       <c r="M27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4902,28 +5086,28 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4931,21 +5115,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4957,109 +5141,111 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5068,19 +5254,19 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5130,39 +5316,39 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5173,7 +5359,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5182,22 +5368,22 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5246,39 +5432,39 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5289,7 +5475,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5298,23 +5484,21 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5362,39 +5546,39 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5405,7 +5589,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5414,21 +5598,21 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5452,13 +5636,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5476,25 +5660,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>168</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5505,10 +5689,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5519,7 +5703,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5528,19 +5712,23 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5588,7 +5776,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5600,13 +5788,13 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5617,10 +5805,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5631,7 +5819,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5640,18 +5828,20 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5676,13 +5866,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5700,7 +5890,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5712,13 +5902,13 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5729,10 +5919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5743,7 +5933,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5755,15 +5945,17 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5812,39 +6004,39 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5855,7 +6047,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5867,13 +6059,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5924,25 +6116,25 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5953,21 +6145,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5979,19 +6171,17 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6040,39 +6230,39 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6083,7 +6273,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6095,15 +6285,17 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6152,39 +6344,39 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6195,7 +6387,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6204,21 +6396,23 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6242,13 +6436,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6266,39 +6460,39 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6309,7 +6503,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6318,20 +6512,22 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6380,39 +6576,39 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>239</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6423,7 +6619,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6432,22 +6628,20 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6472,13 +6666,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6496,25 +6690,25 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>350</v>
+        <v>239</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6525,10 +6719,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6539,7 +6733,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6551,13 +6745,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6584,13 +6778,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6608,25 +6802,25 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6637,10 +6831,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6651,7 +6845,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6663,13 +6857,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6696,13 +6890,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6720,25 +6914,25 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6749,10 +6943,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6763,29 +6957,27 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6834,25 +7026,25 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6863,10 +7055,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6877,7 +7069,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6889,18 +7081,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6948,25 +7138,25 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6977,21 +7167,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7003,19 +7193,19 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7064,25 +7254,25 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7093,10 +7283,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7107,7 +7297,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7119,13 +7309,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7176,7 +7366,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7188,13 +7378,13 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7205,10 +7395,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7219,7 +7409,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7228,18 +7418,20 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7249,7 +7441,7 @@
         <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>78</v>
@@ -7264,13 +7456,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7288,25 +7480,25 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7317,21 +7509,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7343,18 +7535,18 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7402,25 +7594,25 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7431,45 +7623,45 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>137</v>
+        <v>414</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>143</v>
+        <v>415</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7494,13 +7686,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7518,25 +7710,25 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>131</v>
+        <v>418</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7547,10 +7739,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7558,10 +7750,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7573,13 +7765,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7606,13 +7798,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7630,25 +7822,25 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7659,10 +7851,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7673,7 +7865,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7685,13 +7877,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7718,13 +7910,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7742,25 +7934,25 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7771,10 +7963,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7785,27 +7977,29 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>266</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7854,25 +8048,25 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7883,21 +8077,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7909,16 +8103,18 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7966,25 +8162,25 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7995,21 +8191,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>443</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8021,18 +8217,20 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8080,25 +8278,25 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8109,10 +8307,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8123,7 +8321,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8135,20 +8333,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>252</v>
+        <v>451</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8172,13 +8366,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8196,7 +8390,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8208,13 +8402,13 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>454</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8225,10 +8419,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8239,7 +8433,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8251,18 +8445,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>439</v>
+        <v>212</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>440</v>
+        <v>170</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>441</v>
+        <v>171</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>442</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8310,25 +8502,25 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>438</v>
+        <v>172</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8339,14 +8531,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8365,18 +8557,18 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>444</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>445</v>
+        <v>136</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8424,7 +8616,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>443</v>
+        <v>179</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8436,13 +8628,13 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8453,14 +8645,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8473,22 +8665,26 @@
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>444</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8536,7 +8732,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8548,13 +8744,13 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8565,10 +8761,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8576,10 +8772,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8591,17 +8787,15 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8626,13 +8820,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8650,25 +8844,25 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>131</v>
+        <v>468</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8679,10 +8873,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8693,7 +8887,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8705,17 +8899,15 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>383</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8740,13 +8932,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8764,25 +8956,25 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>131</v>
+        <v>474</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8793,10 +8985,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8807,7 +8999,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8819,13 +9011,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>163</v>
+        <v>476</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
+        <v>477</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>390</v>
+        <v>478</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8876,25 +9068,25 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>391</v>
+        <v>475</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>392</v>
+        <v>479</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8905,21 +9097,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>133</v>
+        <v>481</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -8931,17 +9123,15 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>482</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>135</v>
+        <v>483</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -8990,25 +9180,25 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>395</v>
+        <v>480</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>392</v>
+        <v>485</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9019,14 +9209,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9039,26 +9229,24 @@
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>487</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>398</v>
+        <v>488</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>399</v>
+        <v>489</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9106,7 +9294,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9118,13 +9306,13 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>131</v>
+        <v>491</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9135,10 +9323,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9146,10 +9334,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9161,18 +9349,20 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9196,13 +9386,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>498</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9220,25 +9410,25 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>131</v>
+        <v>499</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9249,10 +9439,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9260,10 +9450,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9275,18 +9465,18 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9334,30 +9524,1054 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-activitydefinition-chemotherapyregimen-injection.xlsx
+++ b/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-activitydefinition-chemotherapyregimen-injection.xlsx
@@ -415,8 +415,8 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}</t>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode=ADMM]</t>
